--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.278478666666667</v>
+        <v>0.411687</v>
       </c>
       <c r="H2">
-        <v>6.835436000000001</v>
+        <v>1.235061</v>
       </c>
       <c r="I2">
-        <v>0.006425134583531507</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="J2">
-        <v>0.006425134583531505</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>1.609958595501778</v>
+        <v>0.459728814465</v>
       </c>
       <c r="R2">
-        <v>14.489627359516</v>
+        <v>4.137559330185</v>
       </c>
       <c r="S2">
-        <v>3.333259344906236E-05</v>
+        <v>9.53987513079035E-06</v>
       </c>
       <c r="T2">
-        <v>3.333259344906235E-05</v>
+        <v>9.53987513079035E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.278478666666667</v>
+        <v>0.411687</v>
       </c>
       <c r="H3">
-        <v>6.835436000000001</v>
+        <v>1.235061</v>
       </c>
       <c r="I3">
-        <v>0.006425134583531507</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="J3">
-        <v>0.006425134583531505</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>255.0346893071911</v>
+        <v>46.08095202857999</v>
       </c>
       <c r="R3">
-        <v>2295.31220376472</v>
+        <v>414.72856825722</v>
       </c>
       <c r="S3">
-        <v>0.005280239900477083</v>
+        <v>0.0009562300957188786</v>
       </c>
       <c r="T3">
-        <v>0.005280239900477083</v>
+        <v>0.0009562300957188784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.278478666666667</v>
+        <v>0.411687</v>
       </c>
       <c r="H4">
-        <v>6.835436000000001</v>
+        <v>1.235061</v>
       </c>
       <c r="I4">
-        <v>0.006425134583531507</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="J4">
-        <v>0.006425134583531505</v>
+        <v>0.00116706937075852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>53.68825991079334</v>
+        <v>9.700665176834999</v>
       </c>
       <c r="R4">
-        <v>483.19433919714</v>
+        <v>87.30598659151501</v>
       </c>
       <c r="S4">
-        <v>0.00111156208960536</v>
+        <v>0.0002012993999088514</v>
       </c>
       <c r="T4">
-        <v>0.00111156208960536</v>
+        <v>0.0002012993999088514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>346.0613606666666</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H5">
         <v>1038.184082</v>
       </c>
       <c r="I5">
-        <v>0.975866418664458</v>
+        <v>0.9810307695824356</v>
       </c>
       <c r="J5">
-        <v>0.9758664186644579</v>
+        <v>0.9810307695824355</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>244.5247657251157</v>
+        <v>386.4449911496635</v>
       </c>
       <c r="R5">
-        <v>2200.722891526042</v>
+        <v>3478.004920346971</v>
       </c>
       <c r="S5">
-        <v>0.005062642372863122</v>
+        <v>0.008019155738100558</v>
       </c>
       <c r="T5">
-        <v>0.005062642372863121</v>
+        <v>0.008019155738100558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>346.0613606666666</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H6">
         <v>1038.184082</v>
       </c>
       <c r="I6">
-        <v>0.975866418664458</v>
+        <v>0.9810307695824356</v>
       </c>
       <c r="J6">
-        <v>0.9758664186644579</v>
+        <v>0.9810307695824355</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
-        <v>38735.34252921707</v>
+        <v>38735.34252921708</v>
       </c>
       <c r="R6">
         <v>348618.0827629537</v>
       </c>
       <c r="S6">
-        <v>0.8019767888714884</v>
+        <v>0.8038006738976264</v>
       </c>
       <c r="T6">
-        <v>0.8019767888714884</v>
+        <v>0.8038006738976263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>346.0613606666666</v>
+        <v>346.0613606666668</v>
       </c>
       <c r="H7">
         <v>1038.184082</v>
       </c>
       <c r="I7">
-        <v>0.975866418664458</v>
+        <v>0.9810307695824356</v>
       </c>
       <c r="J7">
-        <v>0.9758664186644579</v>
+        <v>0.9810307695824355</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
-        <v>8154.314783967603</v>
+        <v>8154.314783967606</v>
       </c>
       <c r="R7">
-        <v>73388.83305570843</v>
+        <v>73388.83305570846</v>
       </c>
       <c r="S7">
-        <v>0.1688269874201064</v>
+        <v>0.1692109399467086</v>
       </c>
       <c r="T7">
-        <v>0.1688269874201064</v>
+        <v>0.1692109399467086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>18.839287</v>
       </c>
       <c r="I8">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680593</v>
       </c>
       <c r="J8">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680592</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>4.437240292905222</v>
+        <v>7.012579198821666</v>
       </c>
       <c r="R8">
-        <v>39.93516263614699</v>
+        <v>63.11321278939499</v>
       </c>
       <c r="S8">
-        <v>9.186865248115929E-05</v>
+        <v>0.0001455186792661431</v>
       </c>
       <c r="T8">
-        <v>9.186865248115927E-05</v>
+        <v>0.0001455186792661431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>18.839287</v>
       </c>
       <c r="I9">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680593</v>
       </c>
       <c r="J9">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680592</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>702.9063993597489</v>
@@ -1004,10 +1004,10 @@
         <v>6326.157594237739</v>
       </c>
       <c r="S9">
-        <v>0.01455297875862479</v>
+        <v>0.01458607567665518</v>
       </c>
       <c r="T9">
-        <v>0.01455297875862479</v>
+        <v>0.01458607567665518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>18.839287</v>
       </c>
       <c r="I10">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680593</v>
       </c>
       <c r="J10">
-        <v>0.01770844675201048</v>
+        <v>0.01780216104680592</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>147.9713272116117</v>
@@ -1066,10 +1066,10 @@
         <v>1331.741944904505</v>
       </c>
       <c r="S10">
-        <v>0.00306359934090453</v>
+        <v>0.003070566690884601</v>
       </c>
       <c r="T10">
-        <v>0.00306359934090453</v>
+        <v>0.003070566690884601</v>
       </c>
     </row>
   </sheetData>
